--- a/patient_data/patient_2.xlsx
+++ b/patient_data/patient_2.xlsx
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1238,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1946,22 +1946,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2023,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2109,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
